--- a/Data/Symbols/edit_variables.xlsx
+++ b/Data/Symbols/edit_variables.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/Develop/OSS/KSPCompiler/Data/Symbols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0FA86010-F259-2C44-B3DF-1A717EC5688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B12385F-8909-2548-928F-96A869063576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67200" yWindow="-25400" windowWidth="67200" windowHeight="37300" xr2:uid="{6AA66812-27EE-7E42-AA2C-CFF9959C46FD}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5965" uniqueCount="2987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6017" uniqueCount="3013">
   <si>
     <t>Id</t>
   </si>
@@ -8981,6 +8993,85 @@
   </si>
   <si>
     <t>936ac3dc-23bd-47e9-a0ea-017532cce0b0</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FILTER_FEEDBACK_TYPE</t>
+  </si>
+  <si>
+    <t>$NI_FILTER_FEEDBACK_TYPE_OFF</t>
+  </si>
+  <si>
+    <t>$NI_FILTER_FEEDBACK_TYPE_A</t>
+  </si>
+  <si>
+    <t>$NI_FILTER_FEEDBACK_TYPE_B</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FILTER_FEEDBACK</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_HP_RESONANCE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_LP_RESONANCE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FILTER_FM</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>$FILTER_TYPE_MONARK_LP1</t>
+  </si>
+  <si>
+    <t>$FILTER_TYPE_MONARK_LP2</t>
+  </si>
+  <si>
+    <t>$FILTER_TYPE_MONARK_LP4</t>
+  </si>
+  <si>
+    <t>$FILTER_TYPE_MONARK_BP</t>
+  </si>
+  <si>
+    <t>$FILTER_TYPE_DUAL_SKF</t>
+  </si>
+  <si>
+    <t>b28cecb2-2f93-4be9-b363-027fc16f7681</t>
+  </si>
+  <si>
+    <t>3836f7a7-f00b-4f83-91e2-87906b5d8c4f</t>
+  </si>
+  <si>
+    <t>3684ed36-fa49-4d97-92c8-ace61b5e233b</t>
+  </si>
+  <si>
+    <t>45afd44a-8fd5-4322-a736-f40fad02ddcc</t>
+  </si>
+  <si>
+    <t>90a5d11c-fab3-4abb-945a-98fc148a8bff</t>
+  </si>
+  <si>
+    <t>d22aa631-953d-4d23-ab98-eb73d6d7b99e</t>
+  </si>
+  <si>
+    <t>18f42fb8-f57a-4686-b170-d260df0fbada</t>
+  </si>
+  <si>
+    <t>572ae1a6-1cf2-4ca1-bc82-981fee6408d3</t>
+  </si>
+  <si>
+    <t>ddcc72a4-08f3-4ab5-b294-bd5c8a779a31</t>
+  </si>
+  <si>
+    <t>71fc994a-6145-4291-844d-e0f5ef0cf95c</t>
+  </si>
+  <si>
+    <t>f0b4052a-4379-49e3-a99d-d43e689aa894</t>
+  </si>
+  <si>
+    <t>e41ffaad-1df2-492d-9439-a38c471b7efb</t>
+  </si>
+  <si>
+    <t>4737dd0d-bc24-4ed2-bbc8-9360d2250f39</t>
   </si>
 </sst>
 </file>
@@ -9148,7 +9239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9331,6 +9422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9594,7 +9691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9604,10 +9701,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9985,18 +10085,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACEA5FC-45D5-8741-A93D-9D335044AECD}">
-  <dimension ref="A1:E1491"/>
+  <dimension ref="A1:E1504"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1442" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1457" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A1504" sqref="A1504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
@@ -35742,10 +35842,10 @@
       </c>
     </row>
     <row r="1431" spans="1:5">
-      <c r="A1431" s="4" t="s">
+      <c r="A1431" s="3" t="s">
         <v>2926</v>
       </c>
-      <c r="B1431" s="4" t="s">
+      <c r="B1431" s="3" t="s">
         <v>1375</v>
       </c>
       <c r="C1431" s="2" t="s">
@@ -35760,10 +35860,10 @@
       </c>
     </row>
     <row r="1432" spans="1:5">
-      <c r="A1432" s="4" t="s">
+      <c r="A1432" s="3" t="s">
         <v>2927</v>
       </c>
-      <c r="B1432" s="4" t="s">
+      <c r="B1432" s="3" t="s">
         <v>1376</v>
       </c>
       <c r="C1432" s="2" t="s">
@@ -35778,10 +35878,10 @@
       </c>
     </row>
     <row r="1433" spans="1:5">
-      <c r="A1433" s="4" t="s">
+      <c r="A1433" s="3" t="s">
         <v>2928</v>
       </c>
-      <c r="B1433" s="4" t="s">
+      <c r="B1433" s="3" t="s">
         <v>1377</v>
       </c>
       <c r="C1433" s="2" t="s">
@@ -35796,10 +35896,10 @@
       </c>
     </row>
     <row r="1434" spans="1:5">
-      <c r="A1434" s="4" t="s">
+      <c r="A1434" s="3" t="s">
         <v>2929</v>
       </c>
-      <c r="B1434" s="4" t="s">
+      <c r="B1434" s="3" t="s">
         <v>1378</v>
       </c>
       <c r="C1434" s="2" t="s">
@@ -35814,10 +35914,10 @@
       </c>
     </row>
     <row r="1435" spans="1:5">
-      <c r="A1435" s="4" t="s">
+      <c r="A1435" s="3" t="s">
         <v>2930</v>
       </c>
-      <c r="B1435" s="4" t="s">
+      <c r="B1435" s="3" t="s">
         <v>1379</v>
       </c>
       <c r="C1435" s="2" t="s">
@@ -35832,10 +35932,10 @@
       </c>
     </row>
     <row r="1436" spans="1:5">
-      <c r="A1436" s="4" t="s">
+      <c r="A1436" s="3" t="s">
         <v>2931</v>
       </c>
-      <c r="B1436" s="4" t="s">
+      <c r="B1436" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="C1436" s="2" t="s">
@@ -35850,10 +35950,10 @@
       </c>
     </row>
     <row r="1437" spans="1:5">
-      <c r="A1437" s="4" t="s">
+      <c r="A1437" s="3" t="s">
         <v>2932</v>
       </c>
-      <c r="B1437" s="4" t="s">
+      <c r="B1437" s="3" t="s">
         <v>1381</v>
       </c>
       <c r="C1437" s="2" t="s">
@@ -35868,10 +35968,10 @@
       </c>
     </row>
     <row r="1438" spans="1:5">
-      <c r="A1438" s="4" t="s">
+      <c r="A1438" s="3" t="s">
         <v>2933</v>
       </c>
-      <c r="B1438" s="4" t="s">
+      <c r="B1438" s="3" t="s">
         <v>1382</v>
       </c>
       <c r="C1438" s="2" t="s">
@@ -35886,10 +35986,10 @@
       </c>
     </row>
     <row r="1439" spans="1:5">
-      <c r="A1439" s="4" t="s">
+      <c r="A1439" s="3" t="s">
         <v>2934</v>
       </c>
-      <c r="B1439" s="4" t="s">
+      <c r="B1439" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="C1439" s="2" t="s">
@@ -35904,10 +36004,10 @@
       </c>
     </row>
     <row r="1440" spans="1:5">
-      <c r="A1440" s="4" t="s">
+      <c r="A1440" s="3" t="s">
         <v>2935</v>
       </c>
-      <c r="B1440" s="4" t="s">
+      <c r="B1440" s="3" t="s">
         <v>1384</v>
       </c>
       <c r="C1440" s="2" t="s">
@@ -35922,10 +36022,10 @@
       </c>
     </row>
     <row r="1441" spans="1:5">
-      <c r="A1441" s="4" t="s">
+      <c r="A1441" s="3" t="s">
         <v>2936</v>
       </c>
-      <c r="B1441" s="4" t="s">
+      <c r="B1441" s="3" t="s">
         <v>1385</v>
       </c>
       <c r="C1441" s="2" t="s">
@@ -35940,10 +36040,10 @@
       </c>
     </row>
     <row r="1442" spans="1:5">
-      <c r="A1442" s="4" t="s">
+      <c r="A1442" s="3" t="s">
         <v>2937</v>
       </c>
-      <c r="B1442" s="4" t="s">
+      <c r="B1442" s="3" t="s">
         <v>1386</v>
       </c>
       <c r="C1442" s="2" t="s">
@@ -35958,10 +36058,10 @@
       </c>
     </row>
     <row r="1443" spans="1:5">
-      <c r="A1443" s="4" t="s">
+      <c r="A1443" s="3" t="s">
         <v>2938</v>
       </c>
-      <c r="B1443" s="4" t="s">
+      <c r="B1443" s="3" t="s">
         <v>1387</v>
       </c>
       <c r="C1443" s="2" t="s">
@@ -35976,10 +36076,10 @@
       </c>
     </row>
     <row r="1444" spans="1:5">
-      <c r="A1444" s="4" t="s">
+      <c r="A1444" s="3" t="s">
         <v>2939</v>
       </c>
-      <c r="B1444" s="4" t="s">
+      <c r="B1444" s="3" t="s">
         <v>1388</v>
       </c>
       <c r="C1444" s="2" t="s">
@@ -35994,10 +36094,10 @@
       </c>
     </row>
     <row r="1445" spans="1:5">
-      <c r="A1445" s="4" t="s">
+      <c r="A1445" s="3" t="s">
         <v>2940</v>
       </c>
-      <c r="B1445" s="4" t="s">
+      <c r="B1445" s="3" t="s">
         <v>1389</v>
       </c>
       <c r="C1445" s="2" t="s">
@@ -36012,10 +36112,10 @@
       </c>
     </row>
     <row r="1446" spans="1:5">
-      <c r="A1446" s="4" t="s">
+      <c r="A1446" s="3" t="s">
         <v>2941</v>
       </c>
-      <c r="B1446" s="4" t="s">
+      <c r="B1446" s="3" t="s">
         <v>1390</v>
       </c>
       <c r="C1446" s="2" t="s">
@@ -36030,10 +36130,10 @@
       </c>
     </row>
     <row r="1447" spans="1:5">
-      <c r="A1447" s="4" t="s">
+      <c r="A1447" s="3" t="s">
         <v>2942</v>
       </c>
-      <c r="B1447" s="4" t="s">
+      <c r="B1447" s="3" t="s">
         <v>1391</v>
       </c>
       <c r="C1447" s="2" t="s">
@@ -36048,10 +36148,10 @@
       </c>
     </row>
     <row r="1448" spans="1:5">
-      <c r="A1448" s="4" t="s">
+      <c r="A1448" s="3" t="s">
         <v>2943</v>
       </c>
-      <c r="B1448" s="4" t="s">
+      <c r="B1448" s="3" t="s">
         <v>1392</v>
       </c>
       <c r="C1448" s="2" t="s">
@@ -36066,10 +36166,10 @@
       </c>
     </row>
     <row r="1449" spans="1:5">
-      <c r="A1449" s="4" t="s">
+      <c r="A1449" s="3" t="s">
         <v>2944</v>
       </c>
-      <c r="B1449" s="4" t="s">
+      <c r="B1449" s="3" t="s">
         <v>1393</v>
       </c>
       <c r="C1449" s="2" t="s">
@@ -36084,10 +36184,10 @@
       </c>
     </row>
     <row r="1450" spans="1:5">
-      <c r="A1450" s="4" t="s">
+      <c r="A1450" s="3" t="s">
         <v>2945</v>
       </c>
-      <c r="B1450" s="4" t="s">
+      <c r="B1450" s="3" t="s">
         <v>1394</v>
       </c>
       <c r="C1450" s="2" t="s">
@@ -36102,10 +36202,10 @@
       </c>
     </row>
     <row r="1451" spans="1:5">
-      <c r="A1451" s="4" t="s">
+      <c r="A1451" s="3" t="s">
         <v>2946</v>
       </c>
-      <c r="B1451" s="4" t="s">
+      <c r="B1451" s="3" t="s">
         <v>1395</v>
       </c>
       <c r="C1451" s="2" t="s">
@@ -36120,10 +36220,10 @@
       </c>
     </row>
     <row r="1452" spans="1:5">
-      <c r="A1452" s="4" t="s">
+      <c r="A1452" s="3" t="s">
         <v>2947</v>
       </c>
-      <c r="B1452" s="4" t="s">
+      <c r="B1452" s="3" t="s">
         <v>1396</v>
       </c>
       <c r="C1452" s="2" t="s">
@@ -36138,10 +36238,10 @@
       </c>
     </row>
     <row r="1453" spans="1:5">
-      <c r="A1453" s="4" t="s">
+      <c r="A1453" s="3" t="s">
         <v>2948</v>
       </c>
-      <c r="B1453" s="4" t="s">
+      <c r="B1453" s="3" t="s">
         <v>1397</v>
       </c>
       <c r="C1453" s="2" t="s">
@@ -36156,10 +36256,10 @@
       </c>
     </row>
     <row r="1454" spans="1:5">
-      <c r="A1454" s="4" t="s">
+      <c r="A1454" s="3" t="s">
         <v>2949</v>
       </c>
-      <c r="B1454" s="4" t="s">
+      <c r="B1454" s="3" t="s">
         <v>1398</v>
       </c>
       <c r="C1454" s="2" t="s">
@@ -36174,10 +36274,10 @@
       </c>
     </row>
     <row r="1455" spans="1:5">
-      <c r="A1455" s="4" t="s">
+      <c r="A1455" s="3" t="s">
         <v>2950</v>
       </c>
-      <c r="B1455" s="4" t="s">
+      <c r="B1455" s="3" t="s">
         <v>1399</v>
       </c>
       <c r="C1455" s="2" t="s">
@@ -36192,10 +36292,10 @@
       </c>
     </row>
     <row r="1456" spans="1:5">
-      <c r="A1456" s="4" t="s">
+      <c r="A1456" s="3" t="s">
         <v>2951</v>
       </c>
-      <c r="B1456" s="4" t="s">
+      <c r="B1456" s="3" t="s">
         <v>1400</v>
       </c>
       <c r="C1456" s="2" t="s">
@@ -36210,10 +36310,10 @@
       </c>
     </row>
     <row r="1457" spans="1:5">
-      <c r="A1457" s="4" t="s">
+      <c r="A1457" s="3" t="s">
         <v>2952</v>
       </c>
-      <c r="B1457" s="4" t="s">
+      <c r="B1457" s="3" t="s">
         <v>1401</v>
       </c>
       <c r="C1457" s="2" t="s">
@@ -36228,10 +36328,10 @@
       </c>
     </row>
     <row r="1458" spans="1:5">
-      <c r="A1458" s="4" t="s">
+      <c r="A1458" s="3" t="s">
         <v>2953</v>
       </c>
-      <c r="B1458" s="4" t="s">
+      <c r="B1458" s="3" t="s">
         <v>1402</v>
       </c>
       <c r="C1458" s="2" t="s">
@@ -36246,10 +36346,10 @@
       </c>
     </row>
     <row r="1459" spans="1:5">
-      <c r="A1459" s="4" t="s">
+      <c r="A1459" s="3" t="s">
         <v>2954</v>
       </c>
-      <c r="B1459" s="4" t="s">
+      <c r="B1459" s="3" t="s">
         <v>1403</v>
       </c>
       <c r="C1459" s="2" t="s">
@@ -36264,10 +36364,10 @@
       </c>
     </row>
     <row r="1460" spans="1:5">
-      <c r="A1460" s="4" t="s">
+      <c r="A1460" s="3" t="s">
         <v>2955</v>
       </c>
-      <c r="B1460" s="4" t="s">
+      <c r="B1460" s="3" t="s">
         <v>1404</v>
       </c>
       <c r="C1460" s="2" t="s">
@@ -36282,10 +36382,10 @@
       </c>
     </row>
     <row r="1461" spans="1:5">
-      <c r="A1461" s="4" t="s">
+      <c r="A1461" s="3" t="s">
         <v>2956</v>
       </c>
-      <c r="B1461" s="4" t="s">
+      <c r="B1461" s="3" t="s">
         <v>1405</v>
       </c>
       <c r="C1461" s="2" t="s">
@@ -36300,10 +36400,10 @@
       </c>
     </row>
     <row r="1462" spans="1:5">
-      <c r="A1462" s="4" t="s">
+      <c r="A1462" s="3" t="s">
         <v>2957</v>
       </c>
-      <c r="B1462" s="4" t="s">
+      <c r="B1462" s="3" t="s">
         <v>1406</v>
       </c>
       <c r="C1462" s="2" t="s">
@@ -36318,10 +36418,10 @@
       </c>
     </row>
     <row r="1463" spans="1:5">
-      <c r="A1463" s="4" t="s">
+      <c r="A1463" s="3" t="s">
         <v>2958</v>
       </c>
-      <c r="B1463" s="4" t="s">
+      <c r="B1463" s="3" t="s">
         <v>1407</v>
       </c>
       <c r="C1463" s="2" t="s">
@@ -36336,10 +36436,10 @@
       </c>
     </row>
     <row r="1464" spans="1:5">
-      <c r="A1464" s="4" t="s">
+      <c r="A1464" s="3" t="s">
         <v>2959</v>
       </c>
-      <c r="B1464" s="4" t="s">
+      <c r="B1464" s="3" t="s">
         <v>1408</v>
       </c>
       <c r="C1464" s="2" t="s">
@@ -36354,10 +36454,10 @@
       </c>
     </row>
     <row r="1465" spans="1:5">
-      <c r="A1465" s="4" t="s">
+      <c r="A1465" s="3" t="s">
         <v>2960</v>
       </c>
-      <c r="B1465" s="4" t="s">
+      <c r="B1465" s="3" t="s">
         <v>1409</v>
       </c>
       <c r="C1465" s="2" t="s">
@@ -36372,10 +36472,10 @@
       </c>
     </row>
     <row r="1466" spans="1:5">
-      <c r="A1466" s="4" t="s">
+      <c r="A1466" s="3" t="s">
         <v>2961</v>
       </c>
-      <c r="B1466" s="4" t="s">
+      <c r="B1466" s="3" t="s">
         <v>1410</v>
       </c>
       <c r="C1466" s="2" t="s">
@@ -36390,10 +36490,10 @@
       </c>
     </row>
     <row r="1467" spans="1:5">
-      <c r="A1467" s="4" t="s">
+      <c r="A1467" s="3" t="s">
         <v>2962</v>
       </c>
-      <c r="B1467" s="4" t="s">
+      <c r="B1467" s="3" t="s">
         <v>1411</v>
       </c>
       <c r="C1467" s="2" t="s">
@@ -36408,10 +36508,10 @@
       </c>
     </row>
     <row r="1468" spans="1:5">
-      <c r="A1468" s="4" t="s">
+      <c r="A1468" s="3" t="s">
         <v>2963</v>
       </c>
-      <c r="B1468" s="4" t="s">
+      <c r="B1468" s="3" t="s">
         <v>1412</v>
       </c>
       <c r="C1468" s="2" t="s">
@@ -36426,10 +36526,10 @@
       </c>
     </row>
     <row r="1469" spans="1:5">
-      <c r="A1469" s="4" t="s">
+      <c r="A1469" s="3" t="s">
         <v>2964</v>
       </c>
-      <c r="B1469" s="4" t="s">
+      <c r="B1469" s="3" t="s">
         <v>1413</v>
       </c>
       <c r="C1469" s="2" t="s">
@@ -36444,10 +36544,10 @@
       </c>
     </row>
     <row r="1470" spans="1:5">
-      <c r="A1470" s="4" t="s">
+      <c r="A1470" s="3" t="s">
         <v>2965</v>
       </c>
-      <c r="B1470" s="4" t="s">
+      <c r="B1470" s="3" t="s">
         <v>1414</v>
       </c>
       <c r="C1470" s="2" t="s">
@@ -36462,10 +36562,10 @@
       </c>
     </row>
     <row r="1471" spans="1:5">
-      <c r="A1471" s="4" t="s">
+      <c r="A1471" s="3" t="s">
         <v>2966</v>
       </c>
-      <c r="B1471" s="4" t="s">
+      <c r="B1471" s="3" t="s">
         <v>1415</v>
       </c>
       <c r="C1471" s="2" t="s">
@@ -36480,10 +36580,10 @@
       </c>
     </row>
     <row r="1472" spans="1:5">
-      <c r="A1472" s="4" t="s">
+      <c r="A1472" s="3" t="s">
         <v>2967</v>
       </c>
-      <c r="B1472" s="4" t="s">
+      <c r="B1472" s="3" t="s">
         <v>1416</v>
       </c>
       <c r="C1472" s="2" t="s">
@@ -36498,10 +36598,10 @@
       </c>
     </row>
     <row r="1473" spans="1:5">
-      <c r="A1473" s="4" t="s">
+      <c r="A1473" s="3" t="s">
         <v>2968</v>
       </c>
-      <c r="B1473" s="4" t="s">
+      <c r="B1473" s="3" t="s">
         <v>1417</v>
       </c>
       <c r="C1473" s="2" t="s">
@@ -36516,10 +36616,10 @@
       </c>
     </row>
     <row r="1474" spans="1:5">
-      <c r="A1474" s="4" t="s">
+      <c r="A1474" s="3" t="s">
         <v>2969</v>
       </c>
-      <c r="B1474" s="4" t="s">
+      <c r="B1474" s="3" t="s">
         <v>1418</v>
       </c>
       <c r="C1474" s="2" t="s">
@@ -36534,10 +36634,10 @@
       </c>
     </row>
     <row r="1475" spans="1:5">
-      <c r="A1475" s="4" t="s">
+      <c r="A1475" s="3" t="s">
         <v>2970</v>
       </c>
-      <c r="B1475" s="4" t="s">
+      <c r="B1475" s="3" t="s">
         <v>1419</v>
       </c>
       <c r="C1475" s="2" t="s">
@@ -36552,10 +36652,10 @@
       </c>
     </row>
     <row r="1476" spans="1:5">
-      <c r="A1476" s="4" t="s">
+      <c r="A1476" s="3" t="s">
         <v>2971</v>
       </c>
-      <c r="B1476" s="4" t="s">
+      <c r="B1476" s="3" t="s">
         <v>1420</v>
       </c>
       <c r="C1476" s="2" t="s">
@@ -36570,10 +36670,10 @@
       </c>
     </row>
     <row r="1477" spans="1:5">
-      <c r="A1477" s="4" t="s">
+      <c r="A1477" s="3" t="s">
         <v>2972</v>
       </c>
-      <c r="B1477" s="4" t="s">
+      <c r="B1477" s="3" t="s">
         <v>1421</v>
       </c>
       <c r="C1477" s="2" t="s">
@@ -36588,10 +36688,10 @@
       </c>
     </row>
     <row r="1478" spans="1:5">
-      <c r="A1478" s="4" t="s">
+      <c r="A1478" s="3" t="s">
         <v>2973</v>
       </c>
-      <c r="B1478" s="4" t="s">
+      <c r="B1478" s="3" t="s">
         <v>1422</v>
       </c>
       <c r="C1478" s="2" t="s">
@@ -36606,10 +36706,10 @@
       </c>
     </row>
     <row r="1479" spans="1:5">
-      <c r="A1479" s="4" t="s">
+      <c r="A1479" s="3" t="s">
         <v>2974</v>
       </c>
-      <c r="B1479" s="4" t="s">
+      <c r="B1479" s="3" t="s">
         <v>1423</v>
       </c>
       <c r="C1479" s="2" t="s">
@@ -36624,10 +36724,10 @@
       </c>
     </row>
     <row r="1480" spans="1:5">
-      <c r="A1480" s="4" t="s">
+      <c r="A1480" s="3" t="s">
         <v>2975</v>
       </c>
-      <c r="B1480" s="4" t="s">
+      <c r="B1480" s="3" t="s">
         <v>1424</v>
       </c>
       <c r="C1480" s="2" t="s">
@@ -36642,10 +36742,10 @@
       </c>
     </row>
     <row r="1481" spans="1:5">
-      <c r="A1481" s="4" t="s">
+      <c r="A1481" s="3" t="s">
         <v>2976</v>
       </c>
-      <c r="B1481" s="4" t="s">
+      <c r="B1481" s="3" t="s">
         <v>1425</v>
       </c>
       <c r="C1481" s="2" t="s">
@@ -36660,10 +36760,10 @@
       </c>
     </row>
     <row r="1482" spans="1:5">
-      <c r="A1482" s="4" t="s">
+      <c r="A1482" s="3" t="s">
         <v>2977</v>
       </c>
-      <c r="B1482" s="4" t="s">
+      <c r="B1482" s="3" t="s">
         <v>1426</v>
       </c>
       <c r="C1482" s="2" t="s">
@@ -36678,10 +36778,10 @@
       </c>
     </row>
     <row r="1483" spans="1:5">
-      <c r="A1483" s="4" t="s">
+      <c r="A1483" s="3" t="s">
         <v>2978</v>
       </c>
-      <c r="B1483" s="4" t="s">
+      <c r="B1483" s="3" t="s">
         <v>1427</v>
       </c>
       <c r="C1483" s="2" t="s">
@@ -36696,10 +36796,10 @@
       </c>
     </row>
     <row r="1484" spans="1:5">
-      <c r="A1484" s="4" t="s">
+      <c r="A1484" s="3" t="s">
         <v>2979</v>
       </c>
-      <c r="B1484" s="4" t="s">
+      <c r="B1484" s="3" t="s">
         <v>1428</v>
       </c>
       <c r="C1484" s="2" t="s">
@@ -36714,10 +36814,10 @@
       </c>
     </row>
     <row r="1485" spans="1:5">
-      <c r="A1485" s="4" t="s">
+      <c r="A1485" s="3" t="s">
         <v>2980</v>
       </c>
-      <c r="B1485" s="4" t="s">
+      <c r="B1485" s="3" t="s">
         <v>1429</v>
       </c>
       <c r="C1485" s="2" t="s">
@@ -36732,10 +36832,10 @@
       </c>
     </row>
     <row r="1486" spans="1:5">
-      <c r="A1486" s="4" t="s">
+      <c r="A1486" s="3" t="s">
         <v>2981</v>
       </c>
-      <c r="B1486" s="4" t="s">
+      <c r="B1486" s="3" t="s">
         <v>1430</v>
       </c>
       <c r="C1486" s="2" t="s">
@@ -36750,10 +36850,10 @@
       </c>
     </row>
     <row r="1487" spans="1:5">
-      <c r="A1487" s="4" t="s">
+      <c r="A1487" s="3" t="s">
         <v>2982</v>
       </c>
-      <c r="B1487" s="4" t="s">
+      <c r="B1487" s="3" t="s">
         <v>1431</v>
       </c>
       <c r="C1487" s="2" t="s">
@@ -36768,10 +36868,10 @@
       </c>
     </row>
     <row r="1488" spans="1:5">
-      <c r="A1488" s="4" t="s">
+      <c r="A1488" s="3" t="s">
         <v>2983</v>
       </c>
-      <c r="B1488" s="4" t="s">
+      <c r="B1488" s="3" t="s">
         <v>1432</v>
       </c>
       <c r="C1488" s="2" t="s">
@@ -36786,10 +36886,10 @@
       </c>
     </row>
     <row r="1489" spans="1:5">
-      <c r="A1489" s="4" t="s">
+      <c r="A1489" s="3" t="s">
         <v>2984</v>
       </c>
-      <c r="B1489" s="4" t="s">
+      <c r="B1489" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="C1489" s="2" t="s">
@@ -36804,10 +36904,10 @@
       </c>
     </row>
     <row r="1490" spans="1:5">
-      <c r="A1490" s="4" t="s">
+      <c r="A1490" s="3" t="s">
         <v>2985</v>
       </c>
-      <c r="B1490" s="4" t="s">
+      <c r="B1490" s="3" t="s">
         <v>1434</v>
       </c>
       <c r="C1490" s="2" t="s">
@@ -36822,10 +36922,10 @@
       </c>
     </row>
     <row r="1491" spans="1:5">
-      <c r="A1491" s="4" t="s">
+      <c r="A1491" s="3" t="s">
         <v>2986</v>
       </c>
-      <c r="B1491" s="4" t="s">
+      <c r="B1491" s="3" t="s">
         <v>1435</v>
       </c>
       <c r="C1491" s="2" t="s">
@@ -36836,6 +36936,240 @@
         <v>Built-in Variable: $ZONE_PAR_VOLUME</v>
       </c>
       <c r="E1491" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5">
+      <c r="A1492" s="4" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1492" s="4" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C1492" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1492" s="4" t="str">
+        <f t="shared" ref="D1492:D1504" si="24">"Built-in Variable: " &amp; B1492</f>
+        <v>Built-in Variable: $ENGINE_PAR_FILTER_FEEDBACK_TYPE</v>
+      </c>
+      <c r="E1492" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5">
+      <c r="A1493" s="4" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1493" s="4" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C1493" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1493" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Built-in Variable: $NI_FILTER_FEEDBACK_TYPE_OFF</v>
+      </c>
+      <c r="E1493" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5">
+      <c r="A1494" s="4" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B1494" s="4" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C1494" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1494" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Built-in Variable: $NI_FILTER_FEEDBACK_TYPE_A</v>
+      </c>
+      <c r="E1494" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5">
+      <c r="A1495" s="4" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1495" s="4" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C1495" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1495" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Built-in Variable: $NI_FILTER_FEEDBACK_TYPE_B</v>
+      </c>
+      <c r="E1495" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5">
+      <c r="A1496" s="4" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B1496" s="4" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C1496" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1496" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Built-in Variable: $ENGINE_PAR_FILTER_FEEDBACK</v>
+      </c>
+      <c r="E1496" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5">
+      <c r="A1497" s="4" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1497" s="4" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C1497" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1497" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Built-in Variable: $ENGINE_PAR_HP_RESONANCE</v>
+      </c>
+      <c r="E1497" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5">
+      <c r="A1498" s="4" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B1498" s="4" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C1498" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1498" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Built-in Variable: $ENGINE_PAR_LP_RESONANCE</v>
+      </c>
+      <c r="E1498" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5">
+      <c r="A1499" s="4" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B1499" s="4" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C1499" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1499" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Built-in Variable: $ENGINE_PAR_FILTER_FM</v>
+      </c>
+      <c r="E1499" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5">
+      <c r="A1500" s="4" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B1500" s="4" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C1500" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1500" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Built-in Variable: $FILTER_TYPE_MONARK_LP1</v>
+      </c>
+      <c r="E1500" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5">
+      <c r="A1501" s="4" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B1501" s="4" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C1501" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1501" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Built-in Variable: $FILTER_TYPE_MONARK_LP2</v>
+      </c>
+      <c r="E1501" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5">
+      <c r="A1502" s="4" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1502" s="4" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C1502" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1502" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Built-in Variable: $FILTER_TYPE_MONARK_LP4</v>
+      </c>
+      <c r="E1502" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5">
+      <c r="A1503" s="4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B1503" s="4" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C1503" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1503" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Built-in Variable: $FILTER_TYPE_MONARK_BP</v>
+      </c>
+      <c r="E1503" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5">
+      <c r="A1504" s="4" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B1504" s="4" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C1504" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1504" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Built-in Variable: $FILTER_TYPE_DUAL_SKF</v>
+      </c>
+      <c r="E1504" s="5" t="s">
         <v>7</v>
       </c>
     </row>
